--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N2">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O2">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P2">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q2">
-        <v>959.6081693464845</v>
+        <v>11.46548300201133</v>
       </c>
       <c r="R2">
-        <v>8636.473524118361</v>
+        <v>103.189347018102</v>
       </c>
       <c r="S2">
-        <v>0.04091771776304753</v>
+        <v>0.004777544383605788</v>
       </c>
       <c r="T2">
-        <v>0.04091771776304753</v>
+        <v>0.004777544383605788</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N3">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O3">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P3">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q3">
-        <v>45.89129491154289</v>
+        <v>13.03455813342511</v>
       </c>
       <c r="R3">
-        <v>413.021654203886</v>
+        <v>117.311023200826</v>
       </c>
       <c r="S3">
-        <v>0.001956806030788686</v>
+        <v>0.005431361242453022</v>
       </c>
       <c r="T3">
-        <v>0.001956806030788686</v>
+        <v>0.005431361242453021</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N4">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P4">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q4">
-        <v>171.8025460491334</v>
+        <v>11.53937595791355</v>
       </c>
       <c r="R4">
-        <v>1546.2229144422</v>
+        <v>103.854383621222</v>
       </c>
       <c r="S4">
-        <v>0.007325665114959213</v>
+        <v>0.00480833478959189</v>
       </c>
       <c r="T4">
-        <v>0.007325665114959214</v>
+        <v>0.00480833478959189</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N5">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O5">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P5">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q5">
-        <v>16910.91113118321</v>
+        <v>711.3763528389563</v>
       </c>
       <c r="R5">
-        <v>152198.2001806489</v>
+        <v>6402.387175550607</v>
       </c>
       <c r="S5">
-        <v>0.7210816986405729</v>
+        <v>0.2964229329492286</v>
       </c>
       <c r="T5">
-        <v>0.721081698640573</v>
+        <v>0.2964229329492286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N6">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O6">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P6">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q6">
         <v>808.7296823166268</v>
       </c>
       <c r="R6">
-        <v>7278.567140849642</v>
+        <v>7278.567140849641</v>
       </c>
       <c r="S6">
-        <v>0.03448425507899419</v>
+        <v>0.3369890261866244</v>
       </c>
       <c r="T6">
-        <v>0.0344842550789942</v>
+        <v>0.3369890261866243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N7">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O7">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P7">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q7">
-        <v>3027.629068983967</v>
+        <v>715.9610442523918</v>
       </c>
       <c r="R7">
-        <v>27248.66162085571</v>
+        <v>6443.649398271526</v>
       </c>
       <c r="S7">
-        <v>0.129098183709974</v>
+        <v>0.2983333249239044</v>
       </c>
       <c r="T7">
-        <v>0.1290981837099741</v>
+        <v>0.2983333249239044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.91845899999999</v>
+        <v>1.847479</v>
       </c>
       <c r="N8">
-        <v>131.755377</v>
+        <v>5.542437</v>
       </c>
       <c r="O8">
-        <v>0.8150909120558798</v>
+        <v>0.3181373042830636</v>
       </c>
       <c r="P8">
-        <v>0.8150909120558799</v>
+        <v>0.3181373042830637</v>
       </c>
       <c r="Q8">
-        <v>1245.109349591861</v>
+        <v>40.64617425056766</v>
       </c>
       <c r="R8">
-        <v>11205.98414632675</v>
+        <v>365.815568255109</v>
       </c>
       <c r="S8">
-        <v>0.05309149565225934</v>
+        <v>0.01693682695022932</v>
       </c>
       <c r="T8">
-        <v>0.05309149565225935</v>
+        <v>0.01693682695022932</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>2.100310333333333</v>
       </c>
       <c r="N9">
-        <v>6.300931</v>
+        <v>6.300930999999999</v>
       </c>
       <c r="O9">
-        <v>0.03898005312975703</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="P9">
-        <v>0.03898005312975704</v>
+        <v>0.3616750542791174</v>
       </c>
       <c r="Q9">
-        <v>59.54480399864966</v>
+        <v>46.20868750818522</v>
       </c>
       <c r="R9">
-        <v>535.903235987847</v>
+        <v>415.8781875736669</v>
       </c>
       <c r="S9">
-        <v>0.002538992019974154</v>
+        <v>0.01925466685004004</v>
       </c>
       <c r="T9">
-        <v>0.002538992019974154</v>
+        <v>0.01925466685004004</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.862900000000001</v>
+        <v>1.859385666666666</v>
       </c>
       <c r="N10">
-        <v>23.5887</v>
+        <v>5.578156999999999</v>
       </c>
       <c r="O10">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="P10">
-        <v>0.1459290348143631</v>
+        <v>0.320187641437819</v>
       </c>
       <c r="Q10">
-        <v>222.9169813291</v>
+        <v>40.9081314625721</v>
       </c>
       <c r="R10">
-        <v>2006.2528319619</v>
+        <v>368.173183163149</v>
       </c>
       <c r="S10">
-        <v>0.009505185989429869</v>
+        <v>0.01704598172432277</v>
       </c>
       <c r="T10">
-        <v>0.009505185989429871</v>
+        <v>0.01704598172432277</v>
       </c>
     </row>
   </sheetData>
